--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.631180.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.631180.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DD0EC7D-8E78-4BA4-9092-4E1F294263AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1EBD532-35A3-468F-9331-CE6B23A2AEEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T060617.435" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T064543.984" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="76">
   <si>
     <t>Do Ty</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>STOCKER BUNDELLING</t>
+  </si>
+  <si>
+    <t>PLASTIK HDPE UK. 200 CM</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1087,7 +1090,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ16"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2528,50 +2531,746 @@
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>24001161</v>
+      </c>
+      <c r="D13">
+        <v>1204</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45341</v>
+      </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G13">
-        <v>598.58000000000004</v>
+        <v>43.99</v>
       </c>
       <c r="H13">
-        <v>598.58000000000004</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>2609</v>
+        <v>43.99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W13" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13">
+        <v>2103739</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13">
+        <v>95</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP13">
+        <v>1204</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR13">
+        <v>220249</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY13">
+        <v>631180</v>
+      </c>
+      <c r="AZ13">
+        <v>1204.6311800000001</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>24001162</v>
+      </c>
+      <c r="D14">
+        <v>1204</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45341</v>
+      </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14">
-        <v>598.58000000000004</v>
+        <v>38.1</v>
       </c>
       <c r="H14">
-        <v>598.58000000000004</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>2609</v>
+        <v>38.1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>57</v>
+      </c>
+      <c r="T14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" t="s">
+        <v>60</v>
+      </c>
+      <c r="W14" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14">
+        <v>2103739</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG14">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP14">
+        <v>1204</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR14">
+        <v>79300</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY14">
+        <v>631180</v>
+      </c>
+      <c r="AZ14">
+        <v>1204.6311800000001</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>24001163</v>
+      </c>
+      <c r="D15">
+        <v>1204</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45341</v>
+      </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G15">
-        <v>598.58000000000004</v>
+        <v>37.24</v>
       </c>
       <c r="H15">
-        <v>598.58000000000004</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>2609</v>
+        <v>37.24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15">
+        <v>2103739</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG15">
+        <v>25</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP15">
+        <v>1204</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR15">
+        <v>293816</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY15">
+        <v>631180</v>
+      </c>
+      <c r="AZ15">
+        <v>1204.6311800000001</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>24001164</v>
+      </c>
+      <c r="D16">
+        <v>1204</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45341</v>
+      </c>
       <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16">
+        <v>63.95</v>
+      </c>
+      <c r="H16">
+        <v>63.95</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16">
+        <v>2103739</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16">
+        <v>450</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP16">
+        <v>1204</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR16">
+        <v>79293</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY16">
+        <v>631180</v>
+      </c>
+      <c r="AZ16">
+        <v>1204.6311800000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>24001165</v>
+      </c>
+      <c r="D17">
+        <v>1204</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17">
+        <v>2.35</v>
+      </c>
+      <c r="H17">
+        <v>2.35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>57</v>
+      </c>
+      <c r="T17" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17">
+        <v>2103739</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG17">
+        <v>6</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP17">
+        <v>1204</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR17">
+        <v>79280</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY17">
+        <v>631180</v>
+      </c>
+      <c r="AZ17">
+        <v>1204.6311800000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>24001165</v>
+      </c>
+      <c r="D18">
+        <v>1204</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18">
+        <v>55.42</v>
+      </c>
+      <c r="H18">
+        <v>55.42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18">
+        <v>2103739</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18">
+        <v>4</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG18">
+        <v>138</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP18">
+        <v>1204</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR18">
+        <v>79280</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY18">
+        <v>631180</v>
+      </c>
+      <c r="AZ18">
+        <v>1204.6311800000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19">
+        <v>839.63</v>
+      </c>
+      <c r="H19">
+        <v>839.63</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>839.63</v>
+      </c>
+      <c r="H20">
+        <v>839.63</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
         <v>74</v>
+      </c>
+      <c r="G21">
+        <v>839.63</v>
+      </c>
+      <c r="H21">
+        <v>839.63</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.631180.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.631180.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1EBD532-35A3-468F-9331-CE6B23A2AEEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93F996C2-80C1-4640-9C60-7B3816C6E6E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T064543.984" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T064854.441" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="84">
   <si>
     <t>Do Ty</t>
   </si>
@@ -236,6 +236,30 @@
   </si>
   <si>
     <t>PLASTIK HDPE UK. 200 CM</t>
+  </si>
+  <si>
+    <t>ALL_ALAS DI AMBIL NITA CUTTING</t>
+  </si>
+  <si>
+    <t>ALL_MARKER DIAMBIL NITA CUTING</t>
+  </si>
+  <si>
+    <t>ALL_PE DIAMBIL NITA CUTTING</t>
+  </si>
+  <si>
+    <t>ALL_LAKBAN DIAMBIL NITA CUTING</t>
+  </si>
+  <si>
+    <t>ALL_STICKER DIAMBIL NITA CUTT</t>
+  </si>
+  <si>
+    <t>ALL_LAKBAN DIAMBIL QC GDG</t>
+  </si>
+  <si>
+    <t>ALL_LAKBAN DIAMBIL DIAH GDG</t>
+  </si>
+  <si>
+    <t>ALL_DIAMBIL DESI FINISHING GM2</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1090,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ22"/>
+  <dimension ref="A1:AZ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3014,10 +3038,10 @@
         <v>69</v>
       </c>
       <c r="G17">
-        <v>2.35</v>
+        <v>55.42</v>
       </c>
       <c r="H17">
-        <v>2.35</v>
+        <v>55.42</v>
       </c>
       <c r="I17" t="s">
         <v>55</v>
@@ -3053,7 +3077,7 @@
         <v>56</v>
       </c>
       <c r="AA17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB17" t="s">
         <v>56</v>
@@ -3068,7 +3092,7 @@
         <v>56</v>
       </c>
       <c r="AG17">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="AH17" t="s">
         <v>56</v>
@@ -3130,10 +3154,10 @@
         <v>69</v>
       </c>
       <c r="G18">
-        <v>55.42</v>
+        <v>2.35</v>
       </c>
       <c r="H18">
-        <v>55.42</v>
+        <v>2.35</v>
       </c>
       <c r="I18" t="s">
         <v>55</v>
@@ -3169,7 +3193,7 @@
         <v>56</v>
       </c>
       <c r="AA18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB18" t="s">
         <v>56</v>
@@ -3184,7 +3208,7 @@
         <v>56</v>
       </c>
       <c r="AG18">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="AH18" t="s">
         <v>56</v>
@@ -3227,50 +3251,1094 @@
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>24001186</v>
+      </c>
+      <c r="D19">
+        <v>1204</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45349</v>
+      </c>
       <c r="F19" t="s">
         <v>72</v>
       </c>
       <c r="G19">
-        <v>839.63</v>
+        <v>61.59</v>
       </c>
       <c r="H19">
-        <v>839.63</v>
-      </c>
-      <c r="AG19" s="2">
-        <v>3348</v>
+        <v>61.59</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>57</v>
+      </c>
+      <c r="T19" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19">
+        <v>2105718</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG19">
+        <v>133</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP19">
+        <v>1204</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR19">
+        <v>220249</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY19">
+        <v>631180</v>
+      </c>
+      <c r="AZ19">
+        <v>1204.6311800000001</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>24001187</v>
+      </c>
+      <c r="D20">
+        <v>1204</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45349</v>
+      </c>
       <c r="F20" t="s">
         <v>73</v>
       </c>
       <c r="G20">
-        <v>839.63</v>
+        <v>84.98</v>
       </c>
       <c r="H20">
-        <v>839.63</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>3348</v>
+        <v>84.98</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
+        <v>57</v>
+      </c>
+      <c r="T20" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20">
+        <v>2105718</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG20">
+        <v>140</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP20">
+        <v>1204</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR20">
+        <v>79303</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY20">
+        <v>631180</v>
+      </c>
+      <c r="AZ20">
+        <v>1204.6311800000001</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>24001187</v>
+      </c>
+      <c r="D21">
+        <v>1204</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45349</v>
+      </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21">
-        <v>839.63</v>
+        <v>12.21</v>
       </c>
       <c r="H21">
-        <v>839.63</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>3348</v>
+        <v>12.21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
+        <v>57</v>
+      </c>
+      <c r="T21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21">
+        <v>2105718</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21">
+        <v>4</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG21">
+        <v>20</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP21">
+        <v>1204</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR21">
+        <v>79303</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY21">
+        <v>631180</v>
+      </c>
+      <c r="AZ21">
+        <v>1204.6311800000001</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>24001188</v>
+      </c>
+      <c r="D22">
+        <v>1204</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45349</v>
+      </c>
       <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22">
+        <v>74.47</v>
+      </c>
+      <c r="H22">
+        <v>74.47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>57</v>
+      </c>
+      <c r="T22" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22">
+        <v>2105718</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG22">
+        <v>50</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP22">
+        <v>1204</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR22">
+        <v>293816</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY22">
+        <v>631180</v>
+      </c>
+      <c r="AZ22">
+        <v>1204.6311800000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>24001189</v>
+      </c>
+      <c r="D23">
+        <v>1204</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F23" t="s">
         <v>75</v>
+      </c>
+      <c r="G23">
+        <v>4.71</v>
+      </c>
+      <c r="H23">
+        <v>4.71</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" t="s">
+        <v>57</v>
+      </c>
+      <c r="T23" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>60</v>
+      </c>
+      <c r="W23" t="s">
+        <v>61</v>
+      </c>
+      <c r="X23">
+        <v>2105718</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23">
+        <v>2</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG23">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP23">
+        <v>1204</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR23">
+        <v>79280</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY23">
+        <v>631180</v>
+      </c>
+      <c r="AZ23">
+        <v>1204.6311800000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>24001190</v>
+      </c>
+      <c r="D24">
+        <v>1204</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24">
+        <v>31.97</v>
+      </c>
+      <c r="H24">
+        <v>31.97</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>57</v>
+      </c>
+      <c r="T24" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24">
+        <v>2105718</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24">
+        <v>2</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG24">
+        <v>225</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP24">
+        <v>1204</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR24">
+        <v>79293</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY24">
+        <v>631180</v>
+      </c>
+      <c r="AZ24">
+        <v>1204.6311800000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>24001191</v>
+      </c>
+      <c r="D25">
+        <v>1204</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25">
+        <v>7.23</v>
+      </c>
+      <c r="H25">
+        <v>7.23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" t="s">
+        <v>57</v>
+      </c>
+      <c r="T25" t="s">
+        <v>58</v>
+      </c>
+      <c r="U25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25">
+        <v>2105718</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG25">
+        <v>18</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP25">
+        <v>1204</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR25">
+        <v>79280</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY25">
+        <v>631180</v>
+      </c>
+      <c r="AZ25">
+        <v>1204.6311800000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>24001192</v>
+      </c>
+      <c r="D26">
+        <v>1204</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26">
+        <v>21.69</v>
+      </c>
+      <c r="H26">
+        <v>21.69</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" t="s">
+        <v>57</v>
+      </c>
+      <c r="T26" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26">
+        <v>2105718</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26">
+        <v>2</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG26">
+        <v>54</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP26">
+        <v>1204</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR26">
+        <v>79280</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY26">
+        <v>631180</v>
+      </c>
+      <c r="AZ26">
+        <v>1204.6311800000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>24001199</v>
+      </c>
+      <c r="D27">
+        <v>1204</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27">
+        <v>141.22999999999999</v>
+      </c>
+      <c r="H27">
+        <v>141.22999999999999</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" t="s">
+        <v>57</v>
+      </c>
+      <c r="T27" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X27">
+        <v>2105981</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA27">
+        <v>2</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG27">
+        <v>360</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP27">
+        <v>1204</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR27">
+        <v>79280</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY27">
+        <v>631180</v>
+      </c>
+      <c r="AZ27">
+        <v>1204.6311800000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1279.71</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1279.71</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1279.71</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1279.71</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1279.71</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1279.71</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
